--- a/eBayBox/demo.xlsx
+++ b/eBayBox/demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\github\fe_demo\eBayBox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\FreeLancer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C549D7-114E-4579-950C-A8D85F574F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47D1F39-ED81-436B-944B-307B2045C245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E2EBCF-2E5D-4AF7-85FB-C70435314E80}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>productImage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>typeText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typeTextFromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>parameter1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +127,54 @@
   </si>
   <si>
     <t>sideImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeTitleFromExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem1FromExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem2FromExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem3FromExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem4FromExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem5FromExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SideFacadeItem5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1243B937-6A80-449D-B842-63EC19DC2922}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,35 +673,76 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="e" vm="2">
-        <v>#VALUE!</v>
+    </row>
+    <row r="11" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eBayBox/demo.xlsx
+++ b/eBayBox/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\FreeLancer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\github\fe_demo\eBayBox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47D1F39-ED81-436B-944B-307B2045C245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED91942-0412-4F40-870E-4E39EE1BD539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E2EBCF-2E5D-4AF7-85FB-C70435314E80}"/>
   </bookViews>
@@ -312,9 +312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +352,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -458,7 +458,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,7 +611,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/eBayBox/demo.xlsx
+++ b/eBayBox/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\github\fe_demo\eBayBox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siwu/Desktop/github/fe_demo/eBayBox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED91942-0412-4F40-870E-4E39EE1BD539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA1B012-B4D3-9A42-90E5-B0AF00C3A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="15840" xr2:uid="{C4E2EBCF-2E5D-4AF7-85FB-C70435314E80}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{C4E2EBCF-2E5D-4AF7-85FB-C70435314E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,63 +28,14 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-    <bk>
-      <rc t="1" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>productImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infoField1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subtitleFromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infoField1FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Subtitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,79 +53,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TitleFromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infoField2FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter1FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter2FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sideImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeTitleFromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem1FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem2FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem3FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem4FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem5FromExcel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SideFacadeItem5</t>
+    <t>Title2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Main Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Field Line 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Field Line 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom Logo 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom Logo 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Product Image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +112,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,8 +151,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -242,68 +178,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>1</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
@@ -312,9 +186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +226,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -458,7 +332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -608,136 +482,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1243B937-6A80-449D-B842-63EC19DC2922}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="41" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="34.75" customHeight="1">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34.75" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="34.75" customHeight="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="34.75" customHeight="1">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="34.75" customHeight="1">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" ht="34.75" customHeight="1">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="34.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34.75" customHeight="1">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="12" spans="1:3" ht="34.75" customHeight="1">
+      <c r="A12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
